--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,75 +43,87 @@
     <t>negative</t>
   </si>
   <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
+    <t>boring</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>boring</t>
+    <t>addicted</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
     <t>disturbing</t>
   </si>
   <si>
     <t>hate</t>
   </si>
   <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
     <t>scary</t>
   </si>
   <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>shocking</t>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
     <t>seriously</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>fake</t>
   </si>
   <si>
@@ -136,22 +148,22 @@
     <t>better</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>love</t>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>wow</t>
   </si>
   <si>
     <t>social</t>
-  </si>
-  <si>
-    <t>media</t>
   </si>
   <si>
     <t>positive</t>
@@ -512,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,7 +535,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -602,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -634,10 +646,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -652,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -681,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -699,10 +711,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -731,13 +743,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9423076923076923</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -749,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K6">
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -773,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -781,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9393939393939394</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="C7">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="D7">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -799,10 +811,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K7">
         <v>0.84</v>
@@ -831,13 +843,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9333333333333333</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -849,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L8">
         <v>38</v>
       </c>
-      <c r="K8">
-        <v>0.7017543859649122</v>
-      </c>
-      <c r="L8">
-        <v>40</v>
-      </c>
       <c r="M8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -873,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -902,7 +914,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K9">
         <v>0.5862068965517241</v>
@@ -931,13 +943,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8666666666666667</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -949,19 +961,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>0.5600000000000001</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="L10">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -973,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -981,13 +993,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -999,31 +1011,31 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11">
+        <v>0.4533333333333333</v>
+      </c>
+      <c r="L11">
+        <v>34</v>
+      </c>
+      <c r="M11">
+        <v>34</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>41</v>
-      </c>
-      <c r="K11">
-        <v>0.5</v>
-      </c>
-      <c r="L11">
-        <v>30</v>
-      </c>
-      <c r="M11">
-        <v>30</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1031,13 +1043,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.75</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1049,10 +1061,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K12">
         <v>0.3888888888888889</v>
@@ -1081,13 +1093,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6470588235294118</v>
+        <v>0.6</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1099,19 +1111,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>0.2592592592592592</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1123,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1131,13 +1143,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1149,19 +1161,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>0.02914389799635701</v>
+        <v>0.125</v>
       </c>
       <c r="L14">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="M14">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1173,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1066</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1181,13 +1193,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6</v>
+        <v>0.5625</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1199,19 +1211,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>0.009036144578313253</v>
+        <v>0.03734061930783242</v>
       </c>
       <c r="L15">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="M15">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1223,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>658</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1231,25 +1243,25 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5625</v>
+        <v>0.55</v>
       </c>
       <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>9</v>
-      </c>
-      <c r="D16">
-        <v>9</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1257,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1275,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1283,13 +1295,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4855072463768116</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C18">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1301,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>71</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1309,13 +1321,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4375</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1327,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1335,7 +1347,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -1353,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1361,13 +1373,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3478260869565217</v>
+        <v>0.5</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1379,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1387,13 +1399,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3461538461538461</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1405,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1413,13 +1425,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3404255319148936</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1431,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1439,13 +1451,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2571428571428571</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1457,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1465,13 +1477,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.25</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1483,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1491,13 +1503,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2051282051282051</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1509,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1517,25 +1529,129 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1025641025641026</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="C28">
         <v>8</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>8</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>70</v>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0.25</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.1153846153846154</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>9</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
